--- a/Projektplan/Projekt_ipv6.xlsx
+++ b/Projektplan/Projekt_ipv6.xlsx
@@ -299,7 +299,9 @@
     <tableColumn id="1" name="Paket (Meilensteine sind Fett makiert)"/>
     <tableColumn id="2" name="Zuständiger"/>
     <tableColumn id="3" name="Dauer geplant(in Stunden)"/>
-    <tableColumn id="4" name="Dauer(in Stunden)"/>
+    <tableColumn id="4" name="Dauer(in Stunden)">
+      <calculatedColumnFormula xml:space="preserve"> SUM(G2,I2,K2,M2,O2)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" name="Status" dataDxfId="0"/>
     <tableColumn id="6" name="Freitag (geplannt)"/>
     <tableColumn id="7" name="Freitag"/>
@@ -581,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,12 +662,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f xml:space="preserve"> SUM(G2,I2,K2,M2,O2)</f>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
@@ -680,12 +686,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f t="shared" ref="D3:D37" si="0" xml:space="preserve"> SUM(G3,I3,K3,M3,O3)</f>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
@@ -700,12 +710,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
@@ -720,7 +734,8 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -728,7 +743,13 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
     </row>
@@ -743,7 +764,8 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -751,7 +773,13 @@
       <c r="H6">
         <v>3</v>
       </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
       <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
     </row>
@@ -766,7 +794,8 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -774,7 +803,13 @@
       <c r="J7">
         <v>4</v>
       </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
       <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
         <v>2</v>
       </c>
     </row>
@@ -789,12 +824,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
     </row>
@@ -809,12 +848,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
     </row>
@@ -829,12 +872,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
         <v>2</v>
       </c>
     </row>
@@ -849,12 +896,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
         <v>2</v>
       </c>
     </row>
@@ -869,12 +920,16 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
         <v>2</v>
       </c>
     </row>
@@ -889,12 +944,16 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
         <v>2</v>
       </c>
     </row>
@@ -909,12 +968,19 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="I14">
         <v>3</v>
       </c>
     </row>
@@ -929,13 +995,20 @@
         <v>3</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="I15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -949,7 +1022,8 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -957,8 +1031,11 @@
       <c r="H16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -969,16 +1046,23 @@
         <v>3</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -989,7 +1073,8 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -997,8 +1082,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1097,8 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1017,8 +1106,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1121,8 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1037,8 +1130,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1145,8 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1057,8 +1154,11 @@
       <c r="J21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1069,7 +1169,8 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1077,8 +1178,11 @@
       <c r="L22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1089,7 +1193,8 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1097,8 +1202,11 @@
       <c r="L23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1109,7 +1217,8 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1117,8 +1226,11 @@
       <c r="N24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1129,7 +1241,8 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1137,8 +1250,11 @@
       <c r="N25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1149,16 +1265,20 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1289,8 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1177,8 +1298,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1189,7 +1313,8 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13.5</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1197,8 +1322,17 @@
       <c r="F28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>5.5</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -1209,19 +1343,29 @@
         <v>2</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1232,7 +1376,8 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1240,8 +1385,11 @@
       <c r="H30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1252,7 +1400,8 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1260,8 +1409,11 @@
       <c r="H31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1424,8 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1280,8 +1433,14 @@
       <c r="H32">
         <v>1</v>
       </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32">
         <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1454,17 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="J33">
         <v>2</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -1315,13 +1478,17 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="J34">
         <v>3</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -1335,12 +1502,16 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
         <v>6</v>
       </c>
     </row>
@@ -1355,12 +1526,16 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
         <v>3</v>
       </c>
     </row>
@@ -1375,12 +1550,16 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
     </row>
@@ -1432,51 +1611,51 @@
       </c>
       <c r="D39">
         <f>SUM(D2:D38)</f>
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1">
         <f>AVERAGE(E10:E37)</f>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <f>SUM(F2:F37)</f>
         <v>18</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:O39" si="0">SUM(G2:G37)</f>
-        <v>0</v>
+        <f t="shared" ref="G39:O39" si="1">SUM(G2:G37)</f>
+        <v>18</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="L39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="M39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="O39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -1517,40 +1696,40 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41:O41" si="1" xml:space="preserve"> 18 - (G39)</f>
-        <v>18</v>
+        <f t="shared" ref="G41:O41" si="2" xml:space="preserve"> 18 - (G39)</f>
+        <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Projektplan/Projekt_ipv6.xlsx
+++ b/Projektplan/Projekt_ipv6.xlsx
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -774,13 +774,13 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>2</v>
